--- a/Data Files/COUNTRYCODE/COUNTRYCODE.xlsx
+++ b/Data Files/COUNTRYCODE/COUNTRYCODE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagoo\Katalon Studio\API_TESTING_DEMO\Data Files\COUNTRYCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013611D0-571C-4A10-AFF4-32AAA174FB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBBF616-0FBA-4AFA-9A86-8F205AB8BAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="23040" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
